--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ046Log.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ046Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B5AA5E-C7DD-4569-A132-AA291B58317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="6816"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -204,10 +203,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>結案日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateDate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -234,10 +229,6 @@
   <si>
     <t>Index4</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OutJcicTxtDate</t>
@@ -262,10 +253,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DecimalD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Ukey</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -304,13 +291,46 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>結案原因代號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:毀諾
+01:協商終止
+11:未能接受足以負擔之還款方案
+12:要求折讓本金未為金融機構所接受
+13:要求撤銷原已協商通過之還款方案並要求更優惠還款方案
+14:無法負擔任何還款條件
+15:本行/本公司未能於文件齊全後30日內開始協商
+17:協商意願低落
+18:債務人於協商前大量借款或密集消費
+19:債務人於最大債權金融機構通知簽署協議書10日曆天內未完成簽約手續
+21:資產大於負債
+49:其他(協商不成立)
+53:經最大債權金融機構通知面談後兩次無故不到場面談
+55:債務人主動撤案，終止協商
+56:與債務人聯絡多日（多次），仍無法聯繫上
+89:其他(協商自始未開始)
+90:毀諾後清償
+95:申請資格不符
+96:債務人透過代辦業者申請，經勸導自行撤件。
+97:資料key值報送錯誤，本行結案
+98:依規定轉他行承辦，本行結案
+99:依債務清償方案履行完畢</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -400,6 +420,26 @@
       <sz val="11"/>
       <name val="Dialog"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -473,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,11 +588,23 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,23 +695,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -695,23 +730,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -887,11 +905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -911,7 +929,7 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>29</v>
@@ -939,10 +957,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -994,7 +1012,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="18"/>
@@ -1031,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>19</v>
@@ -1050,10 +1068,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>19</v>
@@ -1082,7 +1100,7 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -1106,40 +1124,42 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" s="28" customFormat="1" ht="356.4">
       <c r="A14" s="18">
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E14" s="21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="G14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18">
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>25</v>
@@ -1161,13 +1181,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="E16" s="21">
         <v>8</v>
@@ -1183,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="E17" s="21">
         <v>6</v>
@@ -1858,10 +1878,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -1887,24 +1907,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
